--- a/excel/绩效考核模板-项目.xlsx
+++ b/excel/绩效考核模板-项目.xlsx
@@ -79,14 +79,16 @@
 1、该项统计项目计划与测试单周期的如期达成率，从软件研发项目角度提供指标考评软件项目经理的项目进度把控能力。
 2、统计考察周期内已关闭的项目和已生成测试报告的项目
 计算标准
-1、实际软件研发项目关闭时间和关联测试单比预期提前完成：1.2
+1、实际软件研发项目关闭时间和关联测试单比预期提前3天完成：1.2
 2、实际软件研发项目关闭时间和关联测试单与预期相等：1
-3、实际软件研发项目关闭时间和关联测试单比预期时间晚5个自然日内：0.5
-4、实际软件研发项目关闭时间和关联测试单与预期时间晚5个自然日外：0</t>
+3、实际软件研发项目关闭时间和关联测试单比预期时间晚2个自然日内：0.8
+4、实际软件研发项目关闭时间和关联测试单与预期时间晚4个自然日内：0.6 +5. ·实际软件研发项目关闭时间和关联测试单与预期时间晚5个自然日内：0.5 +实际软件研发项目关闭时间和关联测试单与预期时间晚5个自然日外：0</t>
   </si>
   <si>
     <t>基数=(单个项目基数之和）/项目数
-分值=基数*35</t>
+分值=基数*40</t>
   </si>
   <si>
     <t>项目成果完整率</t>
@@ -131,10 +133,13 @@
 1、项目周期（含研发和测试）是否与产品计划相符程度。
 2、统计考察周期内已关闭的项目和已生成测试报告的项目。
 计算标准
-1、测试报告生成时间比产品计划时间提前完成：1.2
+1、测试报告生成时间比产品计划时间提前3日完成：1.2
 2、测试报告生成时间与产品计划时间相等：1
-3、测试报告生成时间比产品计划晚5个自然日内：0.5
-4、测试报告生成时间比产品计划晚5个自然日外：0</t>
+3、测试报告生成时间比产品计划晚2个自然日内：0.8
+4、测试报告生成时间比产品计划晚4个自然日内：0.6 +5、测试报告生成时间比产品计划晚5个自然日内：0.5 +6. 超过5个自然日: 0 +</t>
   </si>
   <si>
     <t>基数=(项目基数之和）/项目数
@@ -3403,7 +3408,7 @@
     <mergeCell ref="A12:B16"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.298611" footer="0.298611"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="62" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/excel/绩效考核模板-项目.xlsx
+++ b/excel/绩效考核模板-项目.xlsx
@@ -69,7 +69,7 @@
     </r>
   </si>
   <si>
-    <t>业绩75%</t>
+    <t>业绩60%</t>
   </si>
   <si>
     <t>项目进度达成率</t>
@@ -106,10 +106,10 @@
   </si>
   <si>
     <t>基数=(项目基数之和）/项目数
-分值=基数*35</t>
-  </si>
-  <si>
-    <t>能力25%</t>
+分值=基数*20</t>
+  </si>
+  <si>
+    <t>能力40%</t>
   </si>
   <si>
     <t>项目规划需求数</t>
@@ -126,24 +126,21 @@
     <t>分值=当月创建的需求分指总和</t>
   </si>
   <si>
-    <t>预估承诺完成率</t>
+    <t>项目预估工时准确率</t>
   </si>
   <si>
     <t>描述：
-1、项目周期（含研发和测试）是否与产品计划相符程度。
-2、统计考察周期内已关闭的项目和已生成测试报告的项目。
+本月研发完成需求的工时与项目预估的需求工时的准确率
 计算标准
-1、测试报告生成时间比产品计划时间提前3日完成：1.2
-2、测试报告生成时间与产品计划时间相等：1
-3、测试报告生成时间比产品计划晚2个自然日内：0.8
-4、测试报告生成时间比产品计划晚4个自然日内：0.6 -5、测试报告生成时间比产品计划晚5个自然日内：0.5 -6. 超过5个自然日: 0 +准确率 &gt; 90% 基数 1 +80% &lt; 准确率 &lt;= 90% 基数 0.8 +70% &lt; 准确率 &lt;= 80% 基数 0.6 +60% &lt; 准确率 &lt;= 70% 基数 0.4 +低于60 基数 0  </t>
   </si>
   <si>
-    <t>基数=(项目基数之和）/项目数
-分值=基数*10</t>
+    <t>分值=基数*30</t>
   </si>
   <si>
     <t>关键事件</t>
@@ -1924,7 +1921,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="21">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="E5" t="s" s="22">
         <v>17</v>
@@ -1948,7 +1945,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="21">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="E6" t="s" s="29">
         <v>21</v>
@@ -1968,7 +1965,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="21">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E7" t="s" s="29">
         <v>24</v>

--- a/excel/绩效考核模板-项目.xlsx
+++ b/excel/绩效考核模板-项目.xlsx
@@ -1945,7 +1945,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="21">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E6" t="s" s="29">
         <v>21</v>
@@ -2026,7 +2026,7 @@
       <c r="C10" s="12"/>
       <c r="D10" s="21">
         <f>SUM(D4:D7)</f>
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>

--- a/excel/绩效考核模板-项目.xlsx
+++ b/excel/绩效考核模板-项目.xlsx
@@ -75,20 +75,59 @@
     <t>项目进度达成率</t>
   </si>
   <si>
-    <t>描述：
-1、该项统计项目计划与测试单周期的如期达成率，从软件研发项目角度提供指标考评软件项目经理的项目进度把控能力。
-2、统计考察周期内已关闭的项目和已生成测试报告的项目
-计算标准
-1、实际软件研发项目关闭时间和关联测试单比预期提前3天完成：1.2
-2、实际软件研发项目关闭时间和关联测试单与预期相等：1
-3、实际软件研发项目关闭时间和关联测试单比预期时间晚2个自然日内：0.8
-4、实际软件研发项目关闭时间和关联测试单与预期时间晚4个自然日内：0.6 -5. ·实际软件研发项目关闭时间和关联测试单与预期时间晚5个自然日内：0.5 -实际软件研发项目关闭时间和关联测试单与预期时间晚5个自然日外：0</t>
-  </si>
-  <si>
-    <t>基数=(单个项目基数之和）/项目数
-分值=基数*40</t>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+      </rPr>
+      <t xml:space="preserve">描述
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+      </rPr>
+      <t xml:space="preserve">1、该项由于关联牵扯多方配合（研发、ui设计、产品），只统计测试单阶段的进度达成率，其他环节有其他指标来判断。（以测试报告生成时间为测试项目关闭时间）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+      </rPr>
+      <t xml:space="preserve">计算标准
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+      </rPr>
+      <t>计算标准 +延时率 = (本月结案项目总实际开发天数)/(本月结案项目总预估天数) +延时率 &lt;= -50%                       基数 1.5 +-50% &lt; 延时率 &lt;= -20%.         基数 1.2 +-20% &lt; 延时率 &lt;= 0%.            基数 1 +0% &lt; 延时率 &lt;= 20%.             基数 0.5 +延时率 &gt; 20%                          基数 0</t>
+    </r>
+  </si>
+  <si>
+    <t>分值=基数*40</t>
   </si>
   <si>
     <t>项目成果完整率</t>
@@ -109,7 +148,7 @@
 分值=基数*20</t>
   </si>
   <si>
-    <t>能力40%</t>
+    <t>能力50%</t>
   </si>
   <si>
     <t>项目规划需求数</t>
@@ -597,6 +636,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -616,9 +658,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1906,51 +1945,51 @@
       <c r="E4" t="s" s="22">
         <v>14</v>
       </c>
-      <c r="F4" t="s" s="22">
+      <c r="F4" t="s" s="23">
         <v>15</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="14"/>
       <c r="J4" s="15"/>
     </row>
     <row r="5" ht="148.5" customHeight="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
-      <c r="C5" t="s" s="27">
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" t="s" s="28">
         <v>16</v>
       </c>
       <c r="D5" s="21">
         <v>0.2</v>
       </c>
-      <c r="E5" t="s" s="22">
+      <c r="E5" t="s" s="23">
         <v>17</v>
       </c>
-      <c r="F5" t="s" s="22">
+      <c r="F5" t="s" s="23">
         <v>18</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="14"/>
       <c r="J5" s="15"/>
     </row>
     <row r="6" ht="108" customHeight="1">
-      <c r="A6" s="28">
+      <c r="A6" s="29">
         <v>2</v>
       </c>
       <c r="B6" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="C6" t="s" s="27">
+      <c r="C6" t="s" s="28">
         <v>20</v>
       </c>
       <c r="D6" s="21">
         <v>0.2</v>
       </c>
-      <c r="E6" t="s" s="29">
+      <c r="E6" t="s" s="22">
         <v>21</v>
       </c>
-      <c r="F6" t="s" s="29">
+      <c r="F6" t="s" s="22">
         <v>22</v>
       </c>
       <c r="G6" s="30"/>
@@ -1961,16 +2000,16 @@
     <row r="7" ht="121.5" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="12"/>
-      <c r="C7" t="s" s="27">
+      <c r="C7" t="s" s="28">
         <v>23</v>
       </c>
       <c r="D7" s="21">
         <v>0.3</v>
       </c>
-      <c r="E7" t="s" s="29">
+      <c r="E7" t="s" s="22">
         <v>24</v>
       </c>
-      <c r="F7" t="s" s="29">
+      <c r="F7" t="s" s="22">
         <v>25</v>
       </c>
       <c r="G7" s="30"/>
@@ -1985,10 +2024,10 @@
       <c r="B8" t="s" s="19">
         <v>26</v>
       </c>
-      <c r="C8" t="s" s="27">
+      <c r="C8" t="s" s="28">
         <v>27</v>
       </c>
-      <c r="D8" t="s" s="27">
+      <c r="D8" t="s" s="28">
         <v>28</v>
       </c>
       <c r="E8" t="s" s="31">
@@ -2001,15 +2040,15 @@
       <c r="J8" s="15"/>
     </row>
     <row r="9" ht="34" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
-      <c r="C9" t="s" s="27">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" t="s" s="28">
         <v>30</v>
       </c>
-      <c r="D9" t="s" s="27">
+      <c r="D9" t="s" s="28">
         <v>28</v>
       </c>
-      <c r="E9" t="s" s="22">
+      <c r="E9" t="s" s="23">
         <v>31</v>
       </c>
       <c r="F9" s="33"/>
@@ -2031,7 +2070,7 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="28">
+      <c r="H10" s="29">
         <f>SUM(H6:H7)</f>
         <v>0</v>
       </c>
@@ -2039,7 +2078,7 @@
       <c r="J10" s="15"/>
     </row>
     <row r="11" ht="24" customHeight="1">
-      <c r="A11" t="s" s="22">
+      <c r="A11" t="s" s="23">
         <v>33</v>
       </c>
       <c r="B11" s="33"/>
@@ -2191,7 +2230,7 @@
       <c r="J19" s="15"/>
     </row>
     <row r="20" ht="69" customHeight="1">
-      <c r="A20" t="s" s="22">
+      <c r="A20" t="s" s="23">
         <v>49</v>
       </c>
       <c r="B20" s="33"/>

--- a/excel/绩效考核模板-项目.xlsx
+++ b/excel/绩效考核模板-项目.xlsx
@@ -77,9 +77,9 @@
 1、该项由于关联牵扯多方配合（研发、ui设计、产品），只统计测试单阶段的进度达成率，其他环节有其他指标来判断。（以测试报告生成时间为测试项目关闭时间）
 计算标准
 延时率 = (本月结案项目总实际开发天数)/(本月结案项目总预估天数) - 1
-延时率 &lt;= -50%                       基数 1.5
--50% &lt; 延时率 &lt;= -20%.         基数 1.2
--20% &lt; 延时率 &lt;= 0%.            基数 1
+延时率 &lt;= -50%                       基数 0.8
+-50% &lt; 延时率 &lt;= -20%.         基数 1
+-20% &lt; 延时率 &lt;= 0%.            基数 1.2
 0% &lt; 延时率 &lt;= 20%.             基数 0.8
 20% &lt; 延时率 &lt;= 50%.             基数 0.5
 延时率 &gt; 50%                          基数 0</t>

--- a/excel/绩效考核模板-项目.xlsx
+++ b/excel/绩效考核模板-项目.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>云平台组 项目经理岗XXXX年XX月绩效考核表</t>
   </si>
@@ -85,7 +85,7 @@
 延时率 &gt; 50%                          基数 0</t>
   </si>
   <si>
-    <t>分值=基数*40</t>
+    <t>分值=基数*30</t>
   </si>
   <si>
     <t>项目成果完整率</t>
@@ -134,9 +134,6 @@
 70% &lt; 准确率 &lt;= 80% 基数 0.6
 60% &lt; 准确率 &lt;= 70% 基数 0.4
 低于60 基数 0</t>
-  </si>
-  <si>
-    <t>分值=基数*30</t>
   </si>
   <si>
     <t>关键事件</t>
@@ -1759,7 +1756,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="13">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E4" t="s" s="14">
         <v>14</v>
@@ -1823,7 +1820,7 @@
         <v>24</v>
       </c>
       <c r="F7" t="s" s="14">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="20"/>
@@ -1833,16 +1830,16 @@
         <v>4</v>
       </c>
       <c r="B8" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s" s="18">
         <v>26</v>
       </c>
-      <c r="C8" t="s" s="18">
+      <c r="D8" t="s" s="18">
         <v>27</v>
       </c>
-      <c r="D8" t="s" s="18">
+      <c r="E8" t="s" s="21">
         <v>28</v>
-      </c>
-      <c r="E8" t="s" s="21">
-        <v>29</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="19"/>
@@ -1852,13 +1849,13 @@
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" t="s" s="18">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s" s="18">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s" s="21">
         <v>30</v>
-      </c>
-      <c r="D9" t="s" s="18">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s" s="21">
-        <v>31</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="19"/>
@@ -1866,13 +1863,13 @@
     </row>
     <row r="10" ht="22.5" customHeight="1">
       <c r="A10" t="s" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="13">
         <f>SUM(D4:D7)</f>
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="3"/>
@@ -1884,7 +1881,7 @@
     </row>
     <row r="11" ht="24" customHeight="1">
       <c r="A11" t="s" s="21">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1896,18 +1893,18 @@
     </row>
     <row r="12" ht="18" customHeight="1">
       <c r="A12" t="s" s="24">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" t="s" s="26">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" t="s" s="27">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s" s="27">
         <v>36</v>
-      </c>
-      <c r="F12" t="s" s="27">
-        <v>37</v>
       </c>
       <c r="G12" s="28"/>
       <c r="H12" s="4"/>
@@ -1916,14 +1913,14 @@
       <c r="A13" s="29"/>
       <c r="B13" s="30"/>
       <c r="C13" t="s" s="31">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="32">
         <v>1.2</v>
       </c>
       <c r="F13" t="s" s="27">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="4"/>
@@ -1932,7 +1929,7 @@
       <c r="A14" s="29"/>
       <c r="B14" s="30"/>
       <c r="C14" t="s" s="31">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="32">
@@ -1946,7 +1943,7 @@
       <c r="A15" s="29"/>
       <c r="B15" s="30"/>
       <c r="C15" t="s" s="31">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="32">
@@ -1960,30 +1957,30 @@
       <c r="A16" s="37"/>
       <c r="B16" s="38"/>
       <c r="C16" t="s" s="31">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="32">
         <v>0</v>
       </c>
       <c r="F16" t="s" s="39">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G16" s="40"/>
       <c r="H16" s="4"/>
     </row>
     <row r="17" ht="18" customHeight="1">
       <c r="A17" t="s" s="24">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" t="s" s="31">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="41"/>
       <c r="F17" t="s" s="42">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" s="34"/>
       <c r="H17" s="4"/>
@@ -1992,12 +1989,12 @@
       <c r="A18" s="29"/>
       <c r="B18" s="30"/>
       <c r="C18" t="s" s="31">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="43"/>
       <c r="F18" t="s" s="42">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G18" s="34"/>
       <c r="H18" s="4"/>
@@ -2006,19 +2003,19 @@
       <c r="A19" s="37"/>
       <c r="B19" s="38"/>
       <c r="C19" t="s" s="31">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="41"/>
       <c r="F19" t="s" s="42">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G19" s="34"/>
       <c r="H19" s="4"/>
     </row>
     <row r="20" ht="69" customHeight="1">
       <c r="A20" t="s" s="21">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
